--- a/biology/Botanique/Tillandsia_oaxacana/Tillandsia_oaxacana.xlsx
+++ b/biology/Botanique/Tillandsia_oaxacana/Tillandsia_oaxacana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia oaxacana L.B.Sm. est une plante de la famille des Bromeliaceae.
 L’épithète oaxacana signifie « originaire d’Oaxaca », l’un des états du sud du Mexique.
@@ -512,10 +524,12 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia oaxacana L.B.Sm., in Contr. U.S. Natl. Herb. 29: 279, fig. 4 (1949)
-Diagnose originale[1] :
+Diagnose originale :
 « Acaulis; foliis densissime adpresseque lepidotis, vaginis atro-castaneis, laminis acuminatis; scapo decurvato; scapi bracteis imbricatis; inflorescentia simplicissima, polystiche florigera; bracteis imbricatis, sepala superantibus, tenuibus, sepalis liberis, ellipticis, lepidotis; petalis violaceis; staminibus exsertis. »
 Type :
 leg. T. Macdougall, s.n., 1947-12-21 ; « Mexico. Oaxaca (from Lachatao) » ; Holotypus US National Herbarium (US 00091066)</t>
@@ -546,7 +560,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,11 +620,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte[2].
-Habitat : sur conifères et Quercus[2],[3].
-Altitude : 200 m environ[2],[3].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Typologie : plante en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte.
+Habitat : sur conifères et Quercus,.
+Altitude : 200 m environ,.</t>
         </is>
       </c>
     </row>
@@ -634,11 +654,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique centrale :
- Mexique[3]
-Oaxaca[1],[2]</t>
+ Mexique
+Oaxaca,</t>
         </is>
       </c>
     </row>
@@ -667,6 +689,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
